--- a/output/template.xlsx
+++ b/output/template.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25007"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="28280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="classic" sheetId="2" r:id="rId1"/>
-    <sheet name="keep_burning" sheetId="1" r:id="rId2"/>
+    <sheet name="alwaysBurn" sheetId="4" r:id="rId2"/>
+    <sheet name="keep_burning" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="11">
   <si>
     <t>round</t>
   </si>
@@ -51,12 +52,15 @@
   <si>
     <t>score ave</t>
   </si>
+  <si>
+    <t>round &lt; 100</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -76,6 +80,13 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,8 +114,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -182,304 +194,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>211.0</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>261.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>231.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>146.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>181.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>103.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>236.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>264.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>230.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>180.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>208.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>147.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>385.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>195.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>482.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="44">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>159.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>100.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>161.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>104.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>306.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="53">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>54.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
                   <c:v>117.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>152.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>429.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>192.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>503.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>545.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>294.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>208.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>188.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>217.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>296.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>147.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>571.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>556.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>93.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>164.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>270.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>542.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="57">
+                  <c:v>220.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>237.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>311.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>277.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>156.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>213.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
                   <c:v>229.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>116.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>229.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>397.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>274.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>353.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>292.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>143.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>158.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>291.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>509.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>100.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>420.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>66.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>572.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>379.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>204.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>639.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>591.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>221.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="73">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>238.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>279.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>205.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
                   <c:v>207.0</c:v>
                 </c:pt>
-                <c:pt idx="56">
-                  <c:v>104.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>301.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>374.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>736.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>370.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>201.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="84">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>209.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>178.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>224.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
                   <c:v>119.0</c:v>
                 </c:pt>
-                <c:pt idx="63">
-                  <c:v>264.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>112.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>197.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>156.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>515.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>241.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>525.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>228.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>446.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>102.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>506.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>349.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>153.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>483.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>707.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>776.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>173.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>136.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>425.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>446.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>454.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>268.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>286.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>442.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>346.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>540.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>184.0</c:v>
-                </c:pt>
                 <c:pt idx="94">
-                  <c:v>284.0</c:v>
+                  <c:v>262.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>614.0</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>133.0</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>204.0</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>246.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>352.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -519,304 +531,304 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="100"/>
                 <c:pt idx="0">
-                  <c:v>193.0</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>128.0</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>425.0</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>511.0</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.0</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>85.0</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>330.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>105.0</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>408.0</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>133.0</c:v>
+                  <c:v>251.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>447.0</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>529.0</c:v>
+                  <c:v>177.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>291.0</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>143.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>86.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>136.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>203.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>154.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>55.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>59.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>101.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>148.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>189.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>121.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>120.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>165.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>157.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>232.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>158.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>167.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>111.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>145.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>117.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>190.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>139.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
-                  <c:v>146.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>154.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>304.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>124.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>532.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>613.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>321.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>223.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>439.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>409.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>81.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>141.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>126.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>210.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>607.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>87.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>205.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>62.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>184.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>414.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>232.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>175.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>408.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="88">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>188.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>213.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>109.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>391.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>127.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>285.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>433.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="91">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>216.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>112.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
                   <c:v>54.0</c:v>
                 </c:pt>
-                <c:pt idx="46">
-                  <c:v>331.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>521.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>392.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>167.0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>212.0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>585.0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>538.0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>213.0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>155.0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>58.0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>279.0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>360.0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>815.0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>358.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>169.0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>60.0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>233.0</c:v>
-                </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="98">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
                   <c:v>53.0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>142.0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>98.0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>489.0</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>166.0</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>603.0</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>227.0</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>403.0</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>445.0</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>337.0</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>96.0</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>492.0</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>657.0</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>756.0</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>65.0</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>132.0</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>88.0</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>430.0</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>114.0</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>431.0</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>441.0</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>255.0</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>218.0</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>315.0</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>387.0</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>304.0</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>572.0</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>149.0</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>298.0</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>541.0</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>118.0</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>176.0</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>191.0</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>245.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -833,11 +845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2131677096"/>
-        <c:axId val="-2131673992"/>
+        <c:axId val="-2077811736"/>
+        <c:axId val="-2077808872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2131677096"/>
+        <c:axId val="-2077811736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,7 +858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131673992"/>
+        <c:crossAx val="-2077808872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -854,7 +866,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2131673992"/>
+        <c:axId val="-2077808872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +877,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131677096"/>
+        <c:crossAx val="-2077811736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -931,7 +943,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>keep_burning!$A$1</c:f>
+              <c:f>alwaysBurn!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -952,7 +964,786 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="0"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>alwaysBurn!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>151.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>266.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>241.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>223.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>257.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>239.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>263.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>194.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>284.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>259.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>240.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>139.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>201.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>212.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>53.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>227.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>150.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>271.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>289.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>179.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>278.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>260.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>243.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>174.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>287.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>177.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>299.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>288.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>90.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>292.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>229.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>168.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>235.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>114.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>202.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>248.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>272.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>234.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>269.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>233.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>102.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>267.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>276.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>123.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>198.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>249.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>185.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>94.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>308.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>226.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>130.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>291.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>244.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>228.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>281.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>206.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>alwaysBurn!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="50800"/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="10"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>alwaysBurn!$B$2:$B$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>108.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>163.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>127.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>116.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>126.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>141.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>66.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>170.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>118.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>149.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>87.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>57.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>107.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>58.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>152.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>67.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>155.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>175.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>186.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>98.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>196.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>95.0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147.0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>109.0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>91.0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>81.0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>135.0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>184.0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>51.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>115.0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>215.0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>142.0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>93.0</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>176.0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>134.0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>191.0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>164.0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>122.0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>106.0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>169.0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>183.0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>153.0</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>97.0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>172.0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>99.0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>162.0</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>105.0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>197.0</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>133.0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>218.0</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>160.0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>132.0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>204.0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>113.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2123676696"/>
+        <c:axId val="-2121881928"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2123676696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121881928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2121881928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123676696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.150048823939697"/>
+          <c:y val="0.0229847912846511"/>
+          <c:w val="0.520175295590719"/>
+          <c:h val="0.0663591845539855"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0335975092227666"/>
+          <c:y val="0.107762557077626"/>
+          <c:w val="0.942325985932655"/>
+          <c:h val="0.845942257217848"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>keep_burning!$A$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>round</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="53975"/>
+            </c:spPr>
+            <c:trendlineType val="movingAvg"/>
+            <c:period val="10"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="0"/>
+            <c:trendlineLbl>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -1614,11 +2405,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2119242392"/>
-        <c:axId val="2119304664"/>
+        <c:axId val="-2077754664"/>
+        <c:axId val="-2077751800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2119242392"/>
+        <c:axId val="-2077754664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1627,7 +2418,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119304664"/>
+        <c:crossAx val="-2077751800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1635,7 +2426,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2119304664"/>
+        <c:axId val="-2077751800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1646,7 +2437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2119242392"/>
+        <c:crossAx val="-2077754664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1715,6 +2506,43 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>368300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2073,8 +2901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2089,52 +2917,52 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>211</v>
+        <v>116</v>
       </c>
       <c r="B2">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <f>COUNTIF(A2:A101,"&lt;150")</f>
-        <v>18</v>
+        <f>COUNTIF(A2:A101,"&lt;100")</f>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>147</v>
+        <v>218</v>
       </c>
       <c r="B3">
-        <v>128</v>
+        <v>161</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3">
         <f>MAX(A2:A101)</f>
-        <v>776</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>385</v>
+        <v>261</v>
       </c>
       <c r="B4">
-        <v>425</v>
+        <v>172</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4">
         <f>MIN(A2:A101)</f>
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="B5">
         <v>163</v>
@@ -2144,803 +2972,803 @@
       </c>
       <c r="D5">
         <f>AVERAGE(A2:A101)</f>
-        <v>309.64999999999998</v>
+        <v>184.58</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>482</v>
+        <v>250</v>
       </c>
       <c r="B6">
-        <v>511</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>306</v>
+        <v>139</v>
       </c>
       <c r="B7">
-        <v>268</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
       </c>
       <c r="D8">
         <f>COUNTIF(B2:B101,"&lt;100")</f>
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>321</v>
+        <v>111</v>
       </c>
       <c r="B9">
-        <v>330</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
         <f>MAX(B2:B101)</f>
-        <v>815</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B10">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
         <f>MIN(B2:B101)</f>
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>429</v>
+        <v>111</v>
       </c>
       <c r="B11">
-        <v>408</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11">
         <f>AVERAGE(B2:B101)</f>
-        <v>280.91000000000003</v>
+        <v>142.96</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="B12">
-        <v>133</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>503</v>
+        <v>208</v>
       </c>
       <c r="B13">
-        <v>447</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>545</v>
+        <v>217</v>
       </c>
       <c r="B14">
-        <v>529</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>294</v>
+        <v>231</v>
       </c>
       <c r="B15">
-        <v>291</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>208</v>
+        <v>279</v>
       </c>
       <c r="B16">
-        <v>139</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="B17">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B18">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19">
-        <v>296</v>
+        <v>146</v>
       </c>
       <c r="B19">
-        <v>304</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="B20">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21">
-        <v>571</v>
+        <v>208</v>
       </c>
       <c r="B21">
-        <v>532</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22">
-        <v>556</v>
+        <v>183</v>
       </c>
       <c r="B22">
-        <v>613</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23">
-        <v>360</v>
+        <v>103</v>
       </c>
       <c r="B23">
-        <v>321</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24">
-        <v>233</v>
+        <v>278</v>
       </c>
       <c r="B24">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25">
-        <v>492</v>
+        <v>190</v>
       </c>
       <c r="B25">
-        <v>439</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="B26">
-        <v>409</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B28">
-        <v>78</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="B29">
-        <v>141</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>164</v>
+        <v>199</v>
       </c>
       <c r="B30">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="B31">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>542</v>
+        <v>250</v>
       </c>
       <c r="B32">
-        <v>607</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33">
-        <v>102</v>
+        <v>264</v>
       </c>
       <c r="B33">
-        <v>87</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B34">
-        <v>205</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B35">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="B36">
-        <v>184</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37">
-        <v>397</v>
+        <v>117</v>
       </c>
       <c r="B37">
-        <v>414</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38">
-        <v>274</v>
+        <v>144</v>
       </c>
       <c r="B38">
-        <v>232</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39">
-        <v>201</v>
+        <v>277</v>
       </c>
       <c r="B39">
-        <v>175</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40">
-        <v>353</v>
+        <v>82</v>
       </c>
       <c r="B40">
-        <v>408</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41">
-        <v>292</v>
+        <v>136</v>
       </c>
       <c r="B41">
-        <v>213</v>
+        <v>109</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="B42">
-        <v>109</v>
+        <v>183</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43">
-        <v>420</v>
+        <v>57</v>
       </c>
       <c r="B43">
-        <v>391</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B44">
-        <v>127</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45">
-        <v>291</v>
+        <v>147</v>
       </c>
       <c r="B45">
-        <v>285</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46">
-        <v>509</v>
+        <v>234</v>
       </c>
       <c r="B46">
-        <v>433</v>
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47">
-        <v>100</v>
+        <v>179</v>
       </c>
       <c r="B47">
-        <v>54</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48">
-        <v>420</v>
+        <v>159</v>
       </c>
       <c r="B48">
-        <v>331</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="B49">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50">
-        <v>572</v>
+        <v>212</v>
       </c>
       <c r="B50">
-        <v>521</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51">
-        <v>379</v>
+        <v>161</v>
       </c>
       <c r="B51">
-        <v>392</v>
+        <v>120</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B52">
-        <v>167</v>
+        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>233</v>
+        <v>104</v>
       </c>
       <c r="B53">
-        <v>212</v>
+        <v>53</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54">
-        <v>639</v>
+        <v>306</v>
       </c>
       <c r="B54">
-        <v>585</v>
+        <v>257</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55">
-        <v>591</v>
+        <v>239</v>
       </c>
       <c r="B55">
-        <v>538</v>
+        <v>217</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B56">
-        <v>213</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>207</v>
+        <v>54</v>
       </c>
       <c r="B57">
-        <v>155</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B58">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59">
-        <v>301</v>
+        <v>220</v>
       </c>
       <c r="B59">
-        <v>279</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60">
-        <v>374</v>
+        <v>260</v>
       </c>
       <c r="B60">
-        <v>360</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61">
-        <v>736</v>
+        <v>237</v>
       </c>
       <c r="B61">
-        <v>815</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62">
-        <v>370</v>
+        <v>130</v>
       </c>
       <c r="B62">
-        <v>358</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63">
-        <v>201</v>
+        <v>114</v>
       </c>
       <c r="B63">
-        <v>169</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="B64">
-        <v>60</v>
+        <v>217</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="B65">
-        <v>233</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="B66">
-        <v>53</v>
+        <v>158</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B67">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B68">
-        <v>98</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69">
-        <v>515</v>
+        <v>277</v>
       </c>
       <c r="B69">
-        <v>489</v>
+        <v>227</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70">
-        <v>241</v>
+        <v>156</v>
       </c>
       <c r="B70">
-        <v>166</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71">
-        <v>525</v>
+        <v>213</v>
       </c>
       <c r="B71">
-        <v>603</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="B72">
-        <v>227</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73">
-        <v>446</v>
+        <v>228</v>
       </c>
       <c r="B73">
-        <v>403</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="B74">
-        <v>82</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75">
-        <v>506</v>
+        <v>144</v>
       </c>
       <c r="B75">
-        <v>445</v>
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76">
-        <v>349</v>
+        <v>238</v>
       </c>
       <c r="B76">
-        <v>337</v>
+        <v>194</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77">
-        <v>153</v>
+        <v>279</v>
       </c>
       <c r="B77">
-        <v>96</v>
+        <v>216</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78">
-        <v>483</v>
+        <v>134</v>
       </c>
       <c r="B78">
-        <v>492</v>
+        <v>93</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79">
-        <v>707</v>
+        <v>155</v>
       </c>
       <c r="B79">
-        <v>657</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80">
-        <v>776</v>
+        <v>205</v>
       </c>
       <c r="B80">
-        <v>756</v>
+        <v>188</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81">
-        <v>83</v>
+        <v>212</v>
       </c>
       <c r="B81">
-        <v>65</v>
+        <v>145</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82">
-        <v>173</v>
+        <v>135</v>
       </c>
       <c r="B82">
-        <v>132</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83">
-        <v>136</v>
+        <v>212</v>
       </c>
       <c r="B83">
-        <v>88</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B84">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85">
-        <v>425</v>
+        <v>207</v>
       </c>
       <c r="B85">
-        <v>430</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86">
-        <v>175</v>
+        <v>142</v>
       </c>
       <c r="B86">
-        <v>114</v>
+        <v>132</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87">
-        <v>446</v>
+        <v>209</v>
       </c>
       <c r="B87">
-        <v>431</v>
+        <v>190</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88">
-        <v>454</v>
+        <v>226</v>
       </c>
       <c r="B88">
-        <v>441</v>
+        <v>240</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="B89">
-        <v>255</v>
+        <v>139</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90">
-        <v>286</v>
+        <v>151</v>
       </c>
       <c r="B90">
-        <v>218</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91">
-        <v>392</v>
+        <v>200</v>
       </c>
       <c r="B91">
-        <v>315</v>
+        <v>188</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92">
-        <v>442</v>
+        <v>287</v>
       </c>
       <c r="B92">
-        <v>387</v>
+        <v>213</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93">
-        <v>346</v>
+        <v>178</v>
       </c>
       <c r="B93">
-        <v>304</v>
+        <v>118</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94">
-        <v>540</v>
+        <v>224</v>
       </c>
       <c r="B94">
-        <v>572</v>
+        <v>216</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95">
-        <v>184</v>
+        <v>119</v>
       </c>
       <c r="B95">
-        <v>149</v>
+        <v>77</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="B96">
-        <v>298</v>
+        <v>200</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97">
-        <v>614</v>
+        <v>181</v>
       </c>
       <c r="B97">
-        <v>541</v>
+        <v>138</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="B98">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99">
-        <v>204</v>
+        <v>94</v>
       </c>
       <c r="B99">
-        <v>176</v>
+        <v>54</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100">
-        <v>246</v>
+        <v>111</v>
       </c>
       <c r="B100">
-        <v>191</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101">
-        <v>352</v>
+        <v>101</v>
       </c>
       <c r="B101">
-        <v>245</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2959,6 +3787,892 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>151</v>
+      </c>
+      <c r="B2" s="1">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <f>COUNTIF(A2:A101,"&lt;100")</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>228</v>
+      </c>
+      <c r="B3" s="1">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f>MAX(A2:A101)</f>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>196</v>
+      </c>
+      <c r="B4" s="1">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f>MIN(A2:A101)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>126</v>
+      </c>
+      <c r="B5" s="1">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f>AVERAGE(A2:A101)</f>
+        <v>200.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>259</v>
+      </c>
+      <c r="B8" s="1">
+        <v>140</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <f>COUNTIF(B2:B101,"&lt;100")</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>217</v>
+      </c>
+      <c r="B9" s="1">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <f>MAX(B2:B101)</f>
+        <v>218</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>266</v>
+      </c>
+      <c r="B10" s="1">
+        <v>186</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <f>MIN(B2:B101)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>109</v>
+      </c>
+      <c r="B11" s="1">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <f>AVERAGE(B2:B101)</f>
+        <v>118.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>241</v>
+      </c>
+      <c r="B12" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>169</v>
+      </c>
+      <c r="B13" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>223</v>
+      </c>
+      <c r="B15" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>257</v>
+      </c>
+      <c r="B16" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>239</v>
+      </c>
+      <c r="B17" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>62</v>
+      </c>
+      <c r="B18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>197</v>
+      </c>
+      <c r="B19" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>226</v>
+      </c>
+      <c r="B20" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>164</v>
+      </c>
+      <c r="B21" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>263</v>
+      </c>
+      <c r="B22" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>177</v>
+      </c>
+      <c r="B23" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>194</v>
+      </c>
+      <c r="B24" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>200</v>
+      </c>
+      <c r="B25" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>284</v>
+      </c>
+      <c r="B26" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>229</v>
+      </c>
+      <c r="B27" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>244</v>
+      </c>
+      <c r="B28" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>234</v>
+      </c>
+      <c r="B29" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>130</v>
+      </c>
+      <c r="B30" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>259</v>
+      </c>
+      <c r="B31" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>149</v>
+      </c>
+      <c r="B32" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>197</v>
+      </c>
+      <c r="B33" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>240</v>
+      </c>
+      <c r="B34" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>139</v>
+      </c>
+      <c r="B35" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>128</v>
+      </c>
+      <c r="B36" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>201</v>
+      </c>
+      <c r="B37" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>184</v>
+      </c>
+      <c r="B38" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>212</v>
+      </c>
+      <c r="B39" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>126</v>
+      </c>
+      <c r="B40" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>172</v>
+      </c>
+      <c r="B41" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>53</v>
+      </c>
+      <c r="B42" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>227</v>
+      </c>
+      <c r="B43" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>150</v>
+      </c>
+      <c r="B44" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>250</v>
+      </c>
+      <c r="B45" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>271</v>
+      </c>
+      <c r="B46" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>289</v>
+      </c>
+      <c r="B47" s="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>179</v>
+      </c>
+      <c r="B48" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>176</v>
+      </c>
+      <c r="B49" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>278</v>
+      </c>
+      <c r="B50" s="1">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>260</v>
+      </c>
+      <c r="B51" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>64</v>
+      </c>
+      <c r="B52" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1">
+        <v>177</v>
+      </c>
+      <c r="B53" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="1">
+        <v>256</v>
+      </c>
+      <c r="B54" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1">
+        <v>243</v>
+      </c>
+      <c r="B55" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1">
+        <v>174</v>
+      </c>
+      <c r="B56" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1">
+        <v>184</v>
+      </c>
+      <c r="B57" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1">
+        <v>287</v>
+      </c>
+      <c r="B58" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1">
+        <v>177</v>
+      </c>
+      <c r="B59" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>217</v>
+      </c>
+      <c r="B60" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>299</v>
+      </c>
+      <c r="B61" s="1">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>133</v>
+      </c>
+      <c r="B62" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>288</v>
+      </c>
+      <c r="B63" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>90</v>
+      </c>
+      <c r="B64" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>233</v>
+      </c>
+      <c r="B65" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>102</v>
+      </c>
+      <c r="B66" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>292</v>
+      </c>
+      <c r="B67" s="1">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>229</v>
+      </c>
+      <c r="B68" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>168</v>
+      </c>
+      <c r="B69" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>285</v>
+      </c>
+      <c r="B70" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>40</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>235</v>
+      </c>
+      <c r="B73" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1">
+        <v>281</v>
+      </c>
+      <c r="B74" s="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1">
+        <v>114</v>
+      </c>
+      <c r="B75" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1">
+        <v>202</v>
+      </c>
+      <c r="B76" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1">
+        <v>248</v>
+      </c>
+      <c r="B77" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1">
+        <v>272</v>
+      </c>
+      <c r="B78" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1">
+        <v>234</v>
+      </c>
+      <c r="B79" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1">
+        <v>183</v>
+      </c>
+      <c r="B80" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1">
+        <v>269</v>
+      </c>
+      <c r="B81" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1">
+        <v>118</v>
+      </c>
+      <c r="B82" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1">
+        <v>233</v>
+      </c>
+      <c r="B83" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1">
+        <v>102</v>
+      </c>
+      <c r="B84" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1">
+        <v>267</v>
+      </c>
+      <c r="B85" s="1">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1">
+        <v>276</v>
+      </c>
+      <c r="B86" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1">
+        <v>164</v>
+      </c>
+      <c r="B87" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1">
+        <v>256</v>
+      </c>
+      <c r="B88" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1">
+        <v>123</v>
+      </c>
+      <c r="B89" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1">
+        <v>198</v>
+      </c>
+      <c r="B90" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1">
+        <v>249</v>
+      </c>
+      <c r="B91" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1">
+        <v>185</v>
+      </c>
+      <c r="B92" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1">
+        <v>308</v>
+      </c>
+      <c r="B94" s="1">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1">
+        <v>226</v>
+      </c>
+      <c r="B95" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1">
+        <v>130</v>
+      </c>
+      <c r="B96" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1">
+        <v>291</v>
+      </c>
+      <c r="B97" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1">
+        <v>244</v>
+      </c>
+      <c r="B98" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1">
+        <v>228</v>
+      </c>
+      <c r="B99" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1">
+        <v>281</v>
+      </c>
+      <c r="B100" s="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1">
+        <v>206</v>
+      </c>
+      <c r="B101" s="1">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
